--- a/table/Enum.Upgrade.xlsx
+++ b/table/Enum.Upgrade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2698EA8-F0AE-4EDF-A3AC-767B2A4532C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC0B091-B02B-4D21-B0BB-4E6B6E58033B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ability" sheetId="3" r:id="rId1"/>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305BED7D-AA52-4DB7-8FE2-A26BF7FDDFE8}">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6CF206-8144-4F03-9026-180A4EF73C7D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/table/Enum.Upgrade.xlsx
+++ b/table/Enum.Upgrade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC0B091-B02B-4D21-B0BB-4E6B6E58033B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47BCA7E-8673-4DF6-96E8-CBBB30354E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ability" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>[Flags]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPGRADE_SPEED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6CF206-8144-4F03-9026-180A4EF73C7D}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -640,6 +644,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table/Enum.Upgrade.xlsx
+++ b/table/Enum.Upgrade.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47BCA7E-8673-4DF6-96E8-CBBB30354E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F463CF-BF2C-42C1-9D05-E291F66318B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ability" sheetId="3" r:id="rId1"/>
-    <sheet name="Advanced" sheetId="4" r:id="rId2"/>
+    <sheet name="UpgradeStatus" sheetId="5" r:id="rId2"/>
+    <sheet name="Advanced" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>[Flags]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +107,22 @@
   </si>
   <si>
     <t>UPGRADE_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pending</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,11 +639,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2738B1F5-7CBC-4F0B-94DA-5A80701C8BBF}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6CF206-8144-4F03-9026-180A4EF73C7D}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
